--- a/src/test/resources/TestData1.xlsx
+++ b/src/test/resources/TestData1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20490" windowHeight="7695"/>
+    <workbookView windowWidth="19815" windowHeight="7635"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>TestIdentifier</t>
   </si>
@@ -22,34 +22,52 @@
     <t>Data-Name</t>
   </si>
   <si>
+    <t>Location</t>
+  </si>
+  <si>
     <t>test_01</t>
   </si>
   <si>
     <t>Picasso</t>
   </si>
   <si>
+    <t>Delhi</t>
+  </si>
+  <si>
     <t>test_02</t>
   </si>
   <si>
     <t>Asif</t>
   </si>
   <si>
+    <t>Pune</t>
+  </si>
+  <si>
     <t>test_03</t>
   </si>
   <si>
     <t>Sudip</t>
   </si>
   <si>
+    <t>Kolkata</t>
+  </si>
+  <si>
     <t>test_04</t>
   </si>
   <si>
     <t>Amlan</t>
   </si>
   <si>
+    <t>Aasam</t>
+  </si>
+  <si>
     <t>test_05</t>
   </si>
   <si>
     <t>Manish</t>
+  </si>
+  <si>
+    <t>Siigur</t>
   </si>
 </sst>
 </file>
@@ -62,7 +80,7 @@
     <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -73,43 +91,45 @@
     <font>
       <u/>
       <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
       <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -117,14 +137,6 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -161,6 +173,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -169,6 +188,20 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -177,46 +210,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -237,37 +248,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -279,145 +410,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -446,17 +457,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -503,8 +510,32 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -523,177 +554,158 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="49">
@@ -1014,64 +1026,82 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="5" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="5" outlineLevelCol="2"/>
   <cols>
     <col min="1" max="1" width="13.2857142857143" customWidth="1"/>
     <col min="2" max="2" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:3">
       <c r="A2" s="2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:3">
       <c r="A3" s="2" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>5</v>
+        <v>7</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:3">
       <c r="A4" s="2" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>7</v>
+        <v>10</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:3">
       <c r="A5" s="2" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:3">
       <c r="A6" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>11</v>
+        <v>16</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/TestData1.xlsx
+++ b/src/test/resources/TestData1.xlsx
@@ -67,7 +67,7 @@
     <t>Manish</t>
   </si>
   <si>
-    <t>Siigur</t>
+    <t>Siliguri</t>
   </si>
 </sst>
 </file>
@@ -76,8 +76,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
   <fonts count="20">
@@ -89,56 +89,57 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
       <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -157,24 +158,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -189,6 +175,51 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -196,38 +227,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -248,187 +248,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -510,15 +510,6 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
       </bottom>
@@ -554,10 +545,19 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -575,137 +575,136 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="49">
@@ -1029,7 +1028,7 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="5" outlineLevelCol="2"/>
@@ -1056,7 +1055,7 @@
       <c r="B2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="2" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1067,7 +1066,7 @@
       <c r="B3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="2" t="s">
         <v>8</v>
       </c>
     </row>
@@ -1078,7 +1077,7 @@
       <c r="B4" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="2" t="s">
         <v>11</v>
       </c>
     </row>
@@ -1089,7 +1088,7 @@
       <c r="B5" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="2" t="s">
         <v>14</v>
       </c>
     </row>
@@ -1100,7 +1099,7 @@
       <c r="B6" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="2" t="s">
         <v>17</v>
       </c>
     </row>
